--- a/natmiOut/OldD7/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Rpsa</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H2">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I2">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J2">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>75.4260964743617</v>
+        <v>112.708133</v>
       </c>
       <c r="N2">
-        <v>75.4260964743617</v>
+        <v>338.124399</v>
       </c>
       <c r="O2">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="P2">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="Q2">
-        <v>260.7521727025648</v>
+        <v>519.4640832745783</v>
       </c>
       <c r="R2">
-        <v>260.7521727025648</v>
+        <v>4675.176749471205</v>
       </c>
       <c r="S2">
-        <v>0.00298996985136404</v>
+        <v>0.004814820376968063</v>
       </c>
       <c r="T2">
-        <v>0.00298996985136404</v>
+        <v>0.004814820376968063</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H3">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I3">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J3">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>185.250577792928</v>
+        <v>189.57842</v>
       </c>
       <c r="N3">
-        <v>185.250577792928</v>
+        <v>568.7352599999999</v>
       </c>
       <c r="O3">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="P3">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="Q3">
-        <v>640.4214577156437</v>
+        <v>873.753983254633</v>
       </c>
       <c r="R3">
-        <v>640.4214577156437</v>
+        <v>7863.785849291698</v>
       </c>
       <c r="S3">
-        <v>0.007343527882778596</v>
+        <v>0.008098670569313834</v>
       </c>
       <c r="T3">
-        <v>0.007343527882778596</v>
+        <v>0.008098670569313836</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H4">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I4">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J4">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.36334882510791</v>
+        <v>110.6512236666667</v>
       </c>
       <c r="N4">
-        <v>93.36334882510791</v>
+        <v>331.953671</v>
       </c>
       <c r="O4">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="P4">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="Q4">
-        <v>322.7622427101132</v>
+        <v>509.983928712716</v>
       </c>
       <c r="R4">
-        <v>322.7622427101132</v>
+        <v>4589.855358414445</v>
       </c>
       <c r="S4">
-        <v>0.003701021413780107</v>
+        <v>0.004726950507171628</v>
       </c>
       <c r="T4">
-        <v>0.003701021413780107</v>
+        <v>0.004726950507171628</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.45705511607906</v>
+        <v>4.608931666666666</v>
       </c>
       <c r="H5">
-        <v>3.45705511607906</v>
+        <v>13.826795</v>
       </c>
       <c r="I5">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890621</v>
       </c>
       <c r="J5">
-        <v>0.01732226985425814</v>
+        <v>0.02269509467890622</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.9380275679281</v>
+        <v>118.3222806666667</v>
       </c>
       <c r="N5">
-        <v>82.9380275679281</v>
+        <v>354.966842</v>
       </c>
       <c r="O5">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053953</v>
       </c>
       <c r="P5">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053952</v>
       </c>
       <c r="Q5">
-        <v>286.721332521212</v>
+        <v>545.339306236821</v>
       </c>
       <c r="R5">
-        <v>286.721332521212</v>
+        <v>4908.053756131389</v>
       </c>
       <c r="S5">
-        <v>0.003287750706335399</v>
+        <v>0.00505465322545269</v>
       </c>
       <c r="T5">
-        <v>0.003287750706335399</v>
+        <v>0.00505465322545269</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H6">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I6">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J6">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>75.4260964743617</v>
+        <v>112.708133</v>
       </c>
       <c r="N6">
-        <v>75.4260964743617</v>
+        <v>338.124399</v>
       </c>
       <c r="O6">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="P6">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="Q6">
-        <v>12635.6897834825</v>
+        <v>18959.58112399841</v>
       </c>
       <c r="R6">
-        <v>12635.6897834825</v>
+        <v>170636.2301159856</v>
       </c>
       <c r="S6">
-        <v>0.1448898051825501</v>
+        <v>0.1757329918926351</v>
       </c>
       <c r="T6">
-        <v>0.1448898051825501</v>
+        <v>0.1757329918926351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H7">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I7">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J7">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>185.250577792928</v>
+        <v>189.57842</v>
       </c>
       <c r="N7">
-        <v>185.250577792928</v>
+        <v>568.7352599999999</v>
       </c>
       <c r="O7">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="P7">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="Q7">
-        <v>31033.93841941679</v>
+        <v>31890.57734945748</v>
       </c>
       <c r="R7">
-        <v>31033.93841941679</v>
+        <v>287015.1961451173</v>
       </c>
       <c r="S7">
-        <v>0.3558572083270378</v>
+        <v>0.2955881005045</v>
       </c>
       <c r="T7">
-        <v>0.3558572083270378</v>
+        <v>0.2955881005045001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H8">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I8">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J8">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.36334882510791</v>
+        <v>110.6512236666667</v>
       </c>
       <c r="N8">
-        <v>93.36334882510791</v>
+        <v>331.953671</v>
       </c>
       <c r="O8">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="P8">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="Q8">
-        <v>15640.61204336788</v>
+        <v>18613.57113934146</v>
       </c>
       <c r="R8">
-        <v>15640.61204336788</v>
+        <v>167522.1402540731</v>
       </c>
       <c r="S8">
-        <v>0.1793463808253486</v>
+        <v>0.1725258867656381</v>
       </c>
       <c r="T8">
-        <v>0.1793463808253486</v>
+        <v>0.1725258867656381</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>167.52411133695</v>
+        <v>168.218394</v>
       </c>
       <c r="H9">
-        <v>167.52411133695</v>
+        <v>504.655182</v>
       </c>
       <c r="I9">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316415</v>
       </c>
       <c r="J9">
-        <v>0.8394132480493173</v>
+        <v>0.8283334739316416</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>82.9380275679281</v>
+        <v>118.3222806666667</v>
       </c>
       <c r="N9">
-        <v>82.9380275679281</v>
+        <v>354.966842</v>
       </c>
       <c r="O9">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053953</v>
       </c>
       <c r="P9">
-        <v>0.1897990698676945</v>
+        <v>0.2227200766053952</v>
       </c>
       <c r="Q9">
-        <v>13894.11936435662</v>
+        <v>19903.98402816392</v>
       </c>
       <c r="R9">
-        <v>13894.11936435662</v>
+        <v>179135.8562534752</v>
       </c>
       <c r="S9">
-        <v>0.1593198537143808</v>
+        <v>0.1844864947688684</v>
       </c>
       <c r="T9">
-        <v>0.1593198537143808</v>
+        <v>0.1844864947688684</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>28.5917039135673</v>
+        <v>0.1627236666666667</v>
       </c>
       <c r="H10">
-        <v>28.5917039135673</v>
+        <v>0.488171</v>
       </c>
       <c r="I10">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="J10">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.4260964743617</v>
+        <v>112.708133</v>
       </c>
       <c r="N10">
-        <v>75.4260964743617</v>
+        <v>338.124399</v>
       </c>
       <c r="O10">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="P10">
-        <v>0.1726084327585423</v>
+        <v>0.2121524692929861</v>
       </c>
       <c r="Q10">
-        <v>2156.560617751112</v>
+        <v>18.34028066491434</v>
       </c>
       <c r="R10">
-        <v>2156.560617751112</v>
+        <v>165.062525984229</v>
       </c>
       <c r="S10">
-        <v>0.02472865772462808</v>
+        <v>0.0001699928058704043</v>
       </c>
       <c r="T10">
-        <v>0.02472865772462808</v>
+        <v>0.0001699928058704043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>28.5917039135673</v>
+        <v>0.1627236666666667</v>
       </c>
       <c r="H11">
-        <v>28.5917039135673</v>
+        <v>0.488171</v>
       </c>
       <c r="I11">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="J11">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>185.250577792928</v>
+        <v>189.57842</v>
       </c>
       <c r="N11">
-        <v>185.250577792928</v>
+        <v>568.7352599999999</v>
       </c>
       <c r="O11">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="P11">
-        <v>0.4239356588116781</v>
+        <v>0.3568467408440064</v>
       </c>
       <c r="Q11">
-        <v>5296.629670072663</v>
+        <v>30.84889562327333</v>
       </c>
       <c r="R11">
-        <v>5296.629670072663</v>
+        <v>277.64006060946</v>
       </c>
       <c r="S11">
-        <v>0.06073492260186159</v>
+        <v>0.000285932937495096</v>
       </c>
       <c r="T11">
-        <v>0.06073492260186159</v>
+        <v>0.000285932937495096</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>28.5917039135673</v>
+        <v>0.1627236666666667</v>
       </c>
       <c r="H12">
-        <v>28.5917039135673</v>
+        <v>0.488171</v>
       </c>
       <c r="I12">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="J12">
-        <v>0.1432644820964245</v>
+        <v>0.00080127658394417</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.36334882510791</v>
+        <v>110.6512236666667</v>
       </c>
       <c r="N12">
-        <v>93.36334882510791</v>
+        <v>331.953671</v>
       </c>
       <c r="O12">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="P12">
-        <v>0.2136568385620852</v>
+        <v>0.2082807132576123</v>
       </c>
       <c r="Q12">
-        <v>2669.417225986587</v>
+        <v>18.00557283619345</v>
       </c>
       <c r="R12">
-        <v>2669.417225986587</v>
+        <v>162.050155525741</v>
       </c>
       <c r="S12">
-        <v>0.03060943632295653</v>
+        <v>0.0001668904584205148</v>
       </c>
       <c r="T12">
-        <v>0.03060943632295653</v>
+        <v>0.0001668904584205148</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.1627236666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.488171</v>
+      </c>
+      <c r="I13">
+        <v>0.00080127658394417</v>
+      </c>
+      <c r="J13">
+        <v>0.00080127658394417</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>118.3222806666667</v>
+      </c>
+      <c r="N13">
+        <v>354.966842</v>
+      </c>
+      <c r="O13">
+        <v>0.2227200766053953</v>
+      </c>
+      <c r="P13">
+        <v>0.2227200766053952</v>
+      </c>
+      <c r="Q13">
+        <v>19.25383535844244</v>
+      </c>
+      <c r="R13">
+        <v>173.284518225982</v>
+      </c>
+      <c r="S13">
+        <v>0.000178460382158155</v>
+      </c>
+      <c r="T13">
+        <v>0.0001784603821581549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H14">
+        <v>90.271417</v>
+      </c>
+      <c r="I14">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J14">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>112.708133</v>
+      </c>
+      <c r="N14">
+        <v>338.124399</v>
+      </c>
+      <c r="O14">
+        <v>0.2121524692929861</v>
+      </c>
+      <c r="P14">
+        <v>0.2121524692929861</v>
+      </c>
+      <c r="Q14">
+        <v>3391.440957778154</v>
+      </c>
+      <c r="R14">
+        <v>30522.96862000339</v>
+      </c>
+      <c r="S14">
+        <v>0.03143466421751254</v>
+      </c>
+      <c r="T14">
+        <v>0.03143466421751254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H15">
+        <v>90.271417</v>
+      </c>
+      <c r="I15">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J15">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>189.57842</v>
+      </c>
+      <c r="N15">
+        <v>568.7352599999999</v>
+      </c>
+      <c r="O15">
+        <v>0.3568467408440064</v>
+      </c>
+      <c r="P15">
+        <v>0.3568467408440064</v>
+      </c>
+      <c r="Q15">
+        <v>5704.504202007046</v>
+      </c>
+      <c r="R15">
+        <v>51340.53781806341</v>
+      </c>
+      <c r="S15">
+        <v>0.05287403683269744</v>
+      </c>
+      <c r="T15">
+        <v>0.05287403683269744</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>28.5917039135673</v>
-      </c>
-      <c r="H13">
-        <v>28.5917039135673</v>
-      </c>
-      <c r="I13">
-        <v>0.1432644820964245</v>
-      </c>
-      <c r="J13">
-        <v>0.1432644820964245</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>82.9380275679281</v>
-      </c>
-      <c r="N13">
-        <v>82.9380275679281</v>
-      </c>
-      <c r="O13">
-        <v>0.1897990698676945</v>
-      </c>
-      <c r="P13">
-        <v>0.1897990698676945</v>
-      </c>
-      <c r="Q13">
-        <v>2371.339527397482</v>
-      </c>
-      <c r="R13">
-        <v>2371.339527397482</v>
-      </c>
-      <c r="S13">
-        <v>0.02719146544697835</v>
-      </c>
-      <c r="T13">
-        <v>0.02719146544697835</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H16">
+        <v>90.271417</v>
+      </c>
+      <c r="I16">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J16">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>110.6512236666667</v>
+      </c>
+      <c r="N16">
+        <v>331.953671</v>
+      </c>
+      <c r="O16">
+        <v>0.2082807132576123</v>
+      </c>
+      <c r="P16">
+        <v>0.2082807132576123</v>
+      </c>
+      <c r="Q16">
+        <v>3329.547584391312</v>
+      </c>
+      <c r="R16">
+        <v>29965.92825952181</v>
+      </c>
+      <c r="S16">
+        <v>0.03086098552638205</v>
+      </c>
+      <c r="T16">
+        <v>0.03086098552638204</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>30.09047233333333</v>
+      </c>
+      <c r="H17">
+        <v>90.271417</v>
+      </c>
+      <c r="I17">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="J17">
+        <v>0.148170154805508</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>118.3222806666667</v>
+      </c>
+      <c r="N17">
+        <v>354.966842</v>
+      </c>
+      <c r="O17">
+        <v>0.2227200766053953</v>
+      </c>
+      <c r="P17">
+        <v>0.2227200766053952</v>
+      </c>
+      <c r="Q17">
+        <v>3560.373312817235</v>
+      </c>
+      <c r="R17">
+        <v>32043.35981535511</v>
+      </c>
+      <c r="S17">
+        <v>0.03300046822891602</v>
+      </c>
+      <c r="T17">
+        <v>0.03300046822891602</v>
       </c>
     </row>
   </sheetData>
